--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofwaterloo-my.sharepoint.com/personal/y9kim_uwaterloo_ca/Documents/Projects/Mail-Sender/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{83CA7CB6-BFC8-47E8-A645-3D5A6BAD0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4576EAB-B4A4-4097-9456-FC29E182A57D}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{83CA7CB6-BFC8-47E8-A645-3D5A6BAD0276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC4158C-21B6-4863-BBFC-6DCBC0B07E51}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{81E2FBE2-B90A-4996-A00F-415795D41076}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Company</t>
   </si>
@@ -65,16 +65,7 @@
     <t>Test3</t>
   </si>
   <si>
-    <t>Recruiter3</t>
-  </si>
-  <si>
-    <t>jtey@uwaterloo.ca</t>
-  </si>
-  <si>
     <t>Test4</t>
-  </si>
-  <si>
-    <t>Recruiter4</t>
   </si>
 </sst>
 </file>
@@ -460,7 +451,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,7 +484,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -507,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -517,32 +508,21 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>5</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{0E94ABE8-096C-4732-9C59-49C9898F30DF}"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="jtey@uwaterloo.ca" xr:uid="{A1F72031-D68D-424B-A5BE-634853586B38}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{1C88678D-AD37-4E0F-9481-DBA63B27ACEC}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{950D3821-C3E7-4AE8-9F20-F45EA83C7D28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
